--- a/biology/Médecine/Centre_cardio-thoracique_de_Monaco/Centre_cardio-thoracique_de_Monaco.xlsx
+++ b/biology/Médecine/Centre_cardio-thoracique_de_Monaco/Centre_cardio-thoracique_de_Monaco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre cardio-thoracique de Monaco (CCM) est un hôpital qui se spécialise dans les maladies cardiovasculaires et thoraciques[1].
+Le centre cardio-thoracique de Monaco (CCM) est un hôpital qui se spécialise dans les maladies cardiovasculaires et thoraciques.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Imaginé en 1978, le centre cardio-thoracique de Monaco a ouvert ses portes en avril 1987. Avec le soutien des autorités monégasques, le CCM a été conçu pour répondre au manque de lits dans les départements cardiologie de la région Provence-Alpes-Côte d'Azur, mais aussi pour offrir aux patients du pourtour méditerranéen un établissement à la pointe de la technologie.
-Le centre cardio-thoracique participe régulièrement à diverses actions humanitaires en ouvrant ses portes et son équipement aux équipes bénévoles[2]. Le centre cardio-thoracique de Monaco est le premier centre européen de référence Siemens en médecine cardio-vasculaire[3].
+Le centre cardio-thoracique participe régulièrement à diverses actions humanitaires en ouvrant ses portes et son équipement aux équipes bénévoles. Le centre cardio-thoracique de Monaco est le premier centre européen de référence Siemens en médecine cardio-vasculaire.
 </t>
         </is>
       </c>
